--- a/materials/exp1_stimuli.xlsx
+++ b/materials/exp1_stimuli.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\betha\My Drive\Project_Names\gender-bias-names-public\materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\betha\My Drive (bethanyhgardner@gmail.com)\Project_Names\gender-bias-names-public\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41290D7E-730C-4C4E-93CC-3E2051AF6ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7E2AD7-16D3-4DDE-8E71-E76FC59C92EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{7530A908-A85D-49E5-83D7-BEB2A103AFD3}"/>
+    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{7530A908-A85D-49E5-83D7-BEB2A103AFD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Names_Main" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="205">
   <si>
     <t>X woke up early to walk the dog. After making coffee...</t>
   </si>
@@ -433,20 +433,248 @@
     <t>Candidate</t>
   </si>
   <si>
-    <t>Main</t>
+    <t>List 1</t>
+  </si>
+  <si>
+    <t>List 2</t>
+  </si>
+  <si>
+    <t>List 3</t>
+  </si>
+  <si>
+    <t>List 4</t>
+  </si>
+  <si>
+    <t>List 5</t>
+  </si>
+  <si>
+    <t>List 6</t>
+  </si>
+  <si>
+    <t>List 7</t>
+  </si>
+  <si>
+    <t>List 8</t>
+  </si>
+  <si>
+    <t>List 9</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Matthew Smith</t>
+  </si>
+  <si>
+    <t>Tommie Smith</t>
+  </si>
+  <si>
+    <t>Taylor Smith</t>
+  </si>
+  <si>
+    <t>Kerry Bell</t>
+  </si>
+  <si>
+    <t>Elisha Bell</t>
+  </si>
+  <si>
+    <t>Blair Hill</t>
+  </si>
+  <si>
+    <t>Jessie Cook</t>
+  </si>
+  <si>
+    <t>Reese Campbell</t>
+  </si>
+  <si>
+    <t>Emerson Moore</t>
+  </si>
+  <si>
+    <t>James Miller</t>
+  </si>
+  <si>
+    <t>Brian King</t>
+  </si>
+  <si>
+    <t>Quinn Young</t>
+  </si>
+  <si>
+    <t>Jodie Ward</t>
+  </si>
+  <si>
+    <t>Jackie Walker</t>
+  </si>
+  <si>
+    <t>Tommie Brown</t>
+  </si>
+  <si>
+    <t>Jessie Turner</t>
+  </si>
+  <si>
+    <t>Reese King</t>
+  </si>
+  <si>
+    <t>Brian Wright</t>
+  </si>
+  <si>
+    <t>Emily Brooks</t>
+  </si>
+  <si>
+    <t>Elisha Collins</t>
+  </si>
+  <si>
+    <t>Riley Campbell</t>
+  </si>
+  <si>
+    <t>Quinn Parker</t>
+  </si>
+  <si>
+    <t>Reese Parker</t>
+  </si>
+  <si>
+    <t>Jodie Parker</t>
+  </si>
+  <si>
+    <t>Ashley Green</t>
+  </si>
+  <si>
+    <t>Ashley Cook</t>
+  </si>
+  <si>
+    <t>Ashley Walker</t>
+  </si>
+  <si>
+    <t>Mary Cooper</t>
+  </si>
+  <si>
+    <t>Stevie Cooper</t>
+  </si>
+  <si>
+    <t>Jessie Brooks</t>
+  </si>
+  <si>
+    <t>Emily Baker</t>
+  </si>
+  <si>
+    <t>Mary Collins</t>
+  </si>
+  <si>
+    <t>Rebecca King</t>
+  </si>
+  <si>
+    <t>Stevie Ward</t>
+  </si>
+  <si>
+    <t>Blair Campbell</t>
+  </si>
+  <si>
+    <t>Mary Brown</t>
+  </si>
+  <si>
+    <t>Chris Young</t>
+  </si>
+  <si>
+    <t>Brian Walker</t>
+  </si>
+  <si>
+    <t>James Green</t>
+  </si>
+  <si>
+    <t>Emerson Green</t>
+  </si>
+  <si>
+    <t>Elisha Moore</t>
+  </si>
+  <si>
+    <t>Chris Miller</t>
+  </si>
+  <si>
+    <t>Quinn Brooks</t>
+  </si>
+  <si>
+    <t>Rebecca Wright</t>
+  </si>
+  <si>
+    <t>Taylor Miller</t>
+  </si>
+  <si>
+    <t>Riley Hill</t>
+  </si>
+  <si>
+    <t>Kerry Moore</t>
+  </si>
+  <si>
+    <t>Matthew Brown</t>
+  </si>
+  <si>
+    <t>Emily Ward</t>
+  </si>
+  <si>
+    <t>Emerson Baker</t>
+  </si>
+  <si>
+    <t>Jackie Turner</t>
+  </si>
+  <si>
+    <t>Tommie Hill</t>
+  </si>
+  <si>
+    <t>Jackie White</t>
+  </si>
+  <si>
+    <t>Riley Cook</t>
+  </si>
+  <si>
+    <t>Kerry Baker</t>
+  </si>
+  <si>
+    <t>Chris Collins</t>
+  </si>
+  <si>
+    <t>Blair Young</t>
+  </si>
+  <si>
+    <t>Jodie Cooper</t>
+  </si>
+  <si>
+    <t>Stevie White</t>
+  </si>
+  <si>
+    <t>Matthew Turner</t>
+  </si>
+  <si>
+    <t>James White</t>
+  </si>
+  <si>
+    <t>FRAME</t>
+  </si>
+  <si>
+    <t>FIRST</t>
+  </si>
+  <si>
+    <t>LAST</t>
+  </si>
+  <si>
+    <t>FULL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -470,7 +698,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -589,83 +817,260 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -985,998 +1390,998 @@
   <dimension ref="B1:H65"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="4" customWidth="1"/>
-    <col min="3" max="4" width="13.33203125" style="4"/>
-    <col min="5" max="6" width="13.33203125" style="2"/>
-    <col min="7" max="7" width="5.5546875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="13.33203125" style="2"/>
+    <col min="1" max="1" width="0.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="3" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" style="3"/>
+    <col min="5" max="6" width="13.28515625" style="2"/>
+    <col min="7" max="7" width="5.5703125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="13.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B1" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
-    </row>
-    <row r="2" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="25" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17">
+    <row r="3" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="16">
         <v>6.82</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="21">
         <v>1</v>
       </c>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="8">
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="7">
         <v>6.78</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>2</v>
       </c>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="8">
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="7">
         <v>6.75</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>3</v>
       </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="8">
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="7">
         <v>6.27</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>1</v>
       </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="8">
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="7">
         <v>5.88</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>2</v>
       </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="8">
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="7">
         <v>5.59</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>3</v>
       </c>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="8">
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="7">
         <v>5.27</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>47</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>1</v>
       </c>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="8">
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="7">
         <v>5.22</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="5" t="s">
+      <c r="E10" s="9"/>
+      <c r="F10" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>2</v>
       </c>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="8">
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
         <v>4.7300000000000004</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="5" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>3</v>
       </c>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="8">
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="7">
         <v>4.37</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>46</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>1</v>
       </c>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="8">
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="7">
         <v>4.3499999999999996</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>2</v>
       </c>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="8">
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="7">
         <v>4.24</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>3</v>
       </c>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="8">
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="7">
         <v>3.86</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>1</v>
       </c>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="8">
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="7">
         <v>3.73</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="5" t="s">
+      <c r="E16" s="9"/>
+      <c r="F16" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>2</v>
       </c>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="8">
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="7">
         <v>3.18</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="5" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>3</v>
       </c>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="8">
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="7">
         <v>2.61</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>1</v>
       </c>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="8">
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="7">
         <v>2.4500000000000002</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="5" t="s">
+      <c r="E19" s="9"/>
+      <c r="F19" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>2</v>
       </c>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="8">
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="7">
         <v>2.16</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="5" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>3</v>
       </c>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="8">
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="7">
         <v>1.29</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>1</v>
       </c>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="8">
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="7">
         <v>1.24</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="5" t="s">
+      <c r="E22" s="9"/>
+      <c r="F22" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>2</v>
       </c>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="8">
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="7">
         <v>1.2</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="5" t="s">
+      <c r="E23" s="9"/>
+      <c r="F23" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>3</v>
       </c>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="10" t="s">
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="9" t="s">
         <v>42</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>1</v>
       </c>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="5" t="s">
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <v>2</v>
       </c>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="5" t="s">
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <v>3</v>
       </c>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="10" t="s">
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <v>1</v>
       </c>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="5" t="s">
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="3">
         <v>2</v>
       </c>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="5" t="s">
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="3">
         <v>3</v>
       </c>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="10" t="s">
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="3">
         <v>1</v>
       </c>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="5" t="s">
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="3">
         <v>2</v>
       </c>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="5" t="s">
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="3">
         <v>3</v>
       </c>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="10" t="s">
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="3">
         <v>1</v>
       </c>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="5" t="s">
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="3">
         <v>2</v>
       </c>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="5" t="s">
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="3">
         <v>3</v>
       </c>
-      <c r="H35" s="10"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="10" t="s">
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="3">
         <v>1</v>
       </c>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="5" t="s">
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="3">
         <v>2</v>
       </c>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="5" t="s">
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="3">
         <v>3</v>
       </c>
-      <c r="H38" s="10"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="10" t="s">
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="3">
         <v>1</v>
       </c>
-      <c r="H39" s="10"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="5" t="s">
+      <c r="H39" s="9"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="3">
         <v>2</v>
       </c>
-      <c r="H40" s="10"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="6" t="s">
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="3">
         <v>3</v>
       </c>
-      <c r="H41" s="10"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="10" t="s">
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="3">
         <v>1</v>
       </c>
-      <c r="H42" s="10"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="5" t="s">
+      <c r="H42" s="9"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="3">
         <v>2</v>
       </c>
-      <c r="H43" s="10"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="5" t="s">
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="3">
         <v>3</v>
       </c>
-      <c r="H44" s="10"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="10" t="s">
+      <c r="H44" s="9"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="3">
         <v>1</v>
       </c>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="5" t="s">
+      <c r="H45" s="9"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="3">
         <v>2</v>
       </c>
-      <c r="H46" s="10"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="5" t="s">
+      <c r="H46" s="9"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="3">
         <v>3</v>
       </c>
-      <c r="H47" s="10"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="10" t="s">
+      <c r="H47" s="9"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="3">
         <v>1</v>
       </c>
-      <c r="H48" s="10"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="5" t="s">
+      <c r="H48" s="9"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="3">
         <v>2</v>
       </c>
-      <c r="H49" s="10"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="5" t="s">
+      <c r="H49" s="9"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="3">
         <v>3</v>
       </c>
-      <c r="H50" s="10"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="10" t="s">
+      <c r="H50" s="9"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="3">
         <v>1</v>
       </c>
-      <c r="H51" s="10"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="5" t="s">
+      <c r="H51" s="9"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="3">
         <v>2</v>
       </c>
-      <c r="H52" s="10"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="5" t="s">
+      <c r="H52" s="9"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="3">
         <v>3</v>
       </c>
-      <c r="H53" s="10"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="10" t="s">
+      <c r="H53" s="9"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="3">
         <v>1</v>
       </c>
-      <c r="H54" s="10"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="10"/>
+      <c r="H54" s="9"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="9"/>
       <c r="F55" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="3">
         <v>2</v>
       </c>
-      <c r="H55" s="10"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="10"/>
+      <c r="H55" s="9"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="9"/>
       <c r="F56" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="3">
         <v>3</v>
       </c>
-      <c r="H56" s="10"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="10" t="s">
+      <c r="H56" s="9"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="3">
         <v>1</v>
       </c>
-      <c r="H57" s="10"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="5" t="s">
+      <c r="H57" s="9"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58" s="3">
         <v>2</v>
       </c>
-      <c r="H58" s="10"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="5" t="s">
+      <c r="H58" s="9"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="3">
         <v>3</v>
       </c>
-      <c r="H59" s="10"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="10" t="s">
+      <c r="H59" s="9"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F60" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="3">
         <v>1</v>
       </c>
-      <c r="H60" s="10"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="5" t="s">
+      <c r="H60" s="9"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61" s="3">
         <v>2</v>
       </c>
-      <c r="H61" s="10"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="5" t="s">
+      <c r="H61" s="9"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G62" s="3">
         <v>3</v>
       </c>
-      <c r="H62" s="10"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="10" t="s">
+      <c r="H62" s="9"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="9" t="s">
         <v>29</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63" s="3">
         <v>1</v>
       </c>
-      <c r="H63" s="10"/>
-    </row>
-    <row r="64" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="5" t="s">
+      <c r="H63" s="9"/>
+    </row>
+    <row r="64" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64" s="3">
         <v>2</v>
       </c>
-      <c r="H64" s="10"/>
-    </row>
-    <row r="65" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="12"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="15" t="s">
+      <c r="H64" s="9"/>
+    </row>
+    <row r="65" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="11"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G65" s="16">
+      <c r="G65" s="15">
         <v>3</v>
       </c>
-      <c r="H65" s="10"/>
+      <c r="H65" s="9"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D3:D23">
@@ -1994,22 +2399,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20794572-CEE0-4D4B-BE4A-625261F0BF8E}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
@@ -2020,7 +2425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
@@ -2031,7 +2436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>52</v>
       </c>
@@ -2042,7 +2447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>53</v>
       </c>
@@ -2053,7 +2458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>54</v>
       </c>
@@ -2064,7 +2469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>55</v>
       </c>
@@ -2075,7 +2480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>56</v>
       </c>
@@ -2086,7 +2491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>57</v>
       </c>
@@ -2097,7 +2502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>58</v>
       </c>
@@ -2108,7 +2513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>59</v>
       </c>
@@ -2119,7 +2524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>60</v>
       </c>
@@ -2130,7 +2535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>61</v>
       </c>
@@ -2141,7 +2546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>57</v>
       </c>
@@ -2152,7 +2557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>62</v>
       </c>
@@ -2163,7 +2568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>63</v>
       </c>
@@ -2174,7 +2579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
@@ -2185,7 +2590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>65</v>
       </c>
@@ -2196,7 +2601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
@@ -2207,7 +2612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>67</v>
       </c>
@@ -2218,7 +2623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>68</v>
       </c>
@@ -2229,7 +2634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>69</v>
       </c>
@@ -2240,7 +2645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>70</v>
       </c>
@@ -2251,7 +2656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>71</v>
       </c>
@@ -2262,7 +2667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>56</v>
       </c>
@@ -2273,7 +2678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>72</v>
       </c>
@@ -2284,7 +2689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>73</v>
       </c>
@@ -2308,213 +2713,1007 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE9EA25-7FDF-4124-9592-A724323D8A68}">
-  <dimension ref="A1:A40"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="63" style="2" customWidth="1"/>
+    <col min="2" max="4" width="10.7109375" style="2" customWidth="1"/>
+    <col min="5" max="7" width="18.7109375" style="2" customWidth="1"/>
+    <col min="8" max="10" width="10.7109375" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" s="30"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="I1" s="30"/>
+      <c r="J1" s="41"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
+      <c r="B2" s="24" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="34" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="33" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="33" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="33" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="33" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="33" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="33" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="33" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="33" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" s="40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="33" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" s="40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="33" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" s="40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="33" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" s="40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="33" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" s="40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="33" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" s="40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="33" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" s="40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="33" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="B22" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="J22" s="40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="33" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="B23" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="J23" s="40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="33" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="B24" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F24" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="J24" s="40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="33" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="G25" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25" s="40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="33" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="B26" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="G26" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="I26" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="J26" s="40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="33" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="B27" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G27" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="J27" s="40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="33" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="B28" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="F28" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="G28" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" s="40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="33" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="G29" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="I29" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="J29" s="40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="33" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="G30" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="I30" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="J30" s="40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="43" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>28</v>
+      <c r="B31" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="H31" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="I31" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="J31" s="46" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>